--- a/data/trans_bre/CONS_OTR-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_OTR-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-26,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>484,22%</t>
+          <t>785,23%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-29,86%</t>
+          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,34</t>
+          <t>-8,44; -1,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,88</t>
+          <t>3,95; 9,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,48; -1,75</t>
+          <t>-3,32; 3,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,1; 47,33</t>
+          <t>-41,34; -6,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>129,35; 1756,65</t>
+          <t>181,57; 2719,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,46; -10,8</t>
+          <t>-36,84; 60,89</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,72</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,9%</t>
+          <t>-21,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>440,73%</t>
+          <t>598,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,35%</t>
+          <t>34,93%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,64</t>
+          <t>-8,92; 0,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,05</t>
+          <t>3,28; 9,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 0,56</t>
+          <t>-1,62; 5,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,55; 68,12</t>
+          <t>-38,02; 5,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>103,19; 1302,26</t>
+          <t>130,44; 2311,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 3,52</t>
+          <t>-24,45; 140,75</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>-15,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>466,77%</t>
+          <t>780,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>20,94%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 7,1</t>
+          <t>-8,38; 1,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 16,69</t>
+          <t>5,39; 21,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 0,75</t>
+          <t>-3,64; 11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 64,57</t>
+          <t>-33,95; 7,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>146,28; 1230,46</t>
+          <t>178,58; 4847,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 3,56</t>
+          <t>-31,09; 117,81</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,56%</t>
+          <t>-12,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>103,99%</t>
+          <t>70,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,75%</t>
+          <t>-15,75%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 1,2</t>
+          <t>-6,32; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,44</t>
+          <t>-1,49; 4,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,14</t>
+          <t>-5,14; 2,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 11,88</t>
+          <t>-27,49; 6,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 198,94</t>
+          <t>-45,54; 236,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,18; 6,27</t>
+          <t>-41,15; 30,27</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>6,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>65,61%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>296,22%</t>
+          <t>327,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>80,08%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 10,53</t>
+          <t>0,13; 10,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 10,3</t>
+          <t>2,41; 10,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 8,42</t>
+          <t>0,54; 11,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 182,42</t>
+          <t>0,61; 72,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>133,03; 664,84</t>
+          <t>58,21; 1330,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 51,63</t>
+          <t>6,82; 221,83</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>15,16</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,29</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>210,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>186,66%</t>
+          <t>58,27%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 26,31</t>
+          <t>9,75; 19,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,87; 10,18</t>
+          <t>7,06; 11,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 16,92</t>
+          <t>-14,75; 30,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>79,15; 413,83</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>96,77; 333,41</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>300,86%</t>
+          <t>395,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,68</t>
+          <t>-2,73; 0,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 6,75</t>
+          <t>3,74; 7,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 0,72</t>
+          <t>-1,16; 2,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 18,79</t>
+          <t>-12,95; 5,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>206,4; 422,98</t>
+          <t>221,71; 666,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 3,93</t>
+          <t>-12,42; 34,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_OTR-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_OTR-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-26,37%</t>
+          <t>-18,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -1,02</t>
+          <t>-6,52; 0,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,56</t>
+          <t>3,95; 9,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -6,4</t>
+          <t>-37,04; 1,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>181,57; 2719,45</t>
+          <t>213,72; 3449,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-21,17%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,96</t>
+          <t>-7,81; 1,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 9,25</t>
+          <t>3,41; 9,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,02; 5,93</t>
+          <t>-35,23; 9,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>130,44; 2311,06</t>
+          <t>120,83; 2290,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,68%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 1,7</t>
+          <t>-4,06; 6,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 21,25</t>
+          <t>5,71; 20,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 7,95</t>
+          <t>-18,32; 34,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>178,58; 4847,13</t>
+          <t>187,17; 4841,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,17%</t>
+          <t>-10,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 1,15</t>
+          <t>-5,5; 1,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 4,52</t>
+          <t>-1,51; 4,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 6,3</t>
+          <t>-25,25; 8,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,54; 236,75</t>
+          <t>-44,87; 222,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 10,56</t>
+          <t>-0,22; 9,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 10,87</t>
+          <t>1,93; 10,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 72,52</t>
+          <t>-0,23; 71,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>58,21; 1330,41</t>
+          <t>34,42; 1045,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,16</t>
+          <t>16,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>210,27%</t>
+          <t>332,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,75; 19,18</t>
+          <t>12,54; 20,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,54</t>
+          <t>7,11; 11,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>79,15; 413,83</t>
+          <t>156,7; 676,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 0,93</t>
+          <t>-1,32; 2,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,34</t>
+          <t>3,63; 7,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 5,09</t>
+          <t>-7,15; 13,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>221,71; 666,11</t>
+          <t>212,8; 696,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_OTR-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_OTR-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-2,97</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>726,94%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-18,57%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>785,23%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,73; 9,21</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 3,73</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-6,52; 0,17</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 9,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 3,73</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>190,46; 3265,91</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-36,84; 60,89</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-37,04; 1,88</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>213,72; 3449,87</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-36,84; 60,89</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,6</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-3,13</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,84</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>568,76%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>34,93%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-16,58%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>598,83%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>34,93%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,27; 8,76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 5,47</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-7,81; 1,46</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 9,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 5,47</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>114,17; 2232,34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-24,45; 140,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-35,23; 9,84</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>120,83; 2290,62</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-24,45; 140,75</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,84</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>336,4%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,89%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>780,22%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>20,94%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,1; 18,89</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 11,43</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-4,06; 6,58</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,71; 20,43</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 11,43</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>80,34; 1095,9</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-31,09; 117,81</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-18,32; 34,45</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>187,17; 4841,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-31,09; 117,81</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-1,69</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-2,04</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,68</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>149,54%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-15,75%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-10,17%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>70,23%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-15,75%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,37; 5,54</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 2,59</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-5,5; 1,61</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 4,52</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 2,59</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>40,19; 344,97</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-41,15; 30,27</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-25,25; 8,71</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-44,87; 222,96</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-41,15; 30,27</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,85</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>4,75</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,85</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>396,56%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>80,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>28,91%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>327,58%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>80,08%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,38; 9,94</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 11,24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-0,22; 9,36</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 10,51</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 11,24</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>109,26; 1238,49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 221,83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-0,23; 71,89</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>34,42; 1045,72</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>6,82; 221,83</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>9,08</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>16,91</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>9,03</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,93</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>58,27%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>332,68%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>58,27%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7,1; 11,46</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-14,75; 30,84</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>12,54; 20,86</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 11,53</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-14,75; 30,84</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>156,7; 676,01</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6,26</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>383,16%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>2,84%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>395,1%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>5,1; 7,42</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 2,76</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-1,32; 2,24</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 7,33</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,16; 2,76</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>248,18; 596,03</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-12,42; 34,13</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-7,15; 13,38</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>212,8; 696,93</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-12,42; 34,13</t>
         </is>
       </c>
     </row>
